--- a/data/trans_camb/CoPsoQ_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/CoPsoQ_R-Provincia-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-15.83200201140184</v>
+        <v>-15.62536403429016</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-34.75895622587871</v>
+        <v>-35.73013842632152</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-22.80634032274128</v>
+        <v>-23.93082493856627</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-41.9983154228091</v>
+        <v>-42.23824028685483</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-14.61121387414472</v>
+        <v>-14.60251698361188</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-34.17382047473957</v>
+        <v>-34.16240462588783</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.542159883684928</v>
+        <v>8.818905909457946</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.1850359717887596</v>
+        <v>-0.1827476225919265</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.169073020865434</v>
+        <v>5.378511005410562</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-13.30490997976353</v>
+        <v>-15.52331419141837</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.105511159372916</v>
+        <v>4.613572120618153</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-11.22276567801942</v>
+        <v>-10.66635025296623</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3626964093789176</v>
+        <v>-0.367497978154979</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8766524221201052</v>
+        <v>-0.883393999659053</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5019885265989954</v>
+        <v>-0.5071469147108397</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.9068554409836425</v>
+        <v>-0.9164858697290891</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.341171794177097</v>
+        <v>-0.3420568626388827</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8357020202211946</v>
+        <v>-0.8230028624548447</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2805046270963606</v>
+        <v>0.2851171674873836</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.04630655021737392</v>
+        <v>0.03927870238072428</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2348072955920941</v>
+        <v>0.1792591782560527</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.386989977658549</v>
+        <v>-0.4580876901431607</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1685630121410443</v>
+        <v>0.1469580242166053</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2615737054206533</v>
+        <v>-0.2777928855337721</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>1.579477513714794</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>24.10817819634933</v>
+        <v>24.10817819634934</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.9393323813574161</v>
@@ -784,7 +784,7 @@
         <v>0.5523166077751274</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>19.71020865560494</v>
+        <v>19.71020865560496</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.278725709460539</v>
+        <v>-7.667469459989472</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.603354373918204</v>
+        <v>5.432794729884756</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.78288369527467</v>
+        <v>-12.30773010585613</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01100564451021799</v>
+        <v>0.08660292160882034</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.492308482590407</v>
+        <v>-6.879842399151584</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.467025936470964</v>
+        <v>6.663688183478196</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.98517550769023</v>
+        <v>11.13210420889519</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>42.55809506931768</v>
+        <v>41.26315934936862</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.60199606604581</v>
+        <v>9.637552064382902</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30.9275700106779</v>
+        <v>29.74187034991449</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.691349991395585</v>
+        <v>8.340510891447266</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>32.70600230132293</v>
+        <v>32.5438540698857</v>
       </c>
     </row>
     <row r="13">
@@ -850,7 +850,7 @@
         <v>0.0765439273658057</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>1.168319665686912</v>
+        <v>1.168319665686913</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.04251207707503576</v>
@@ -862,7 +862,7 @@
         <v>0.02600542215168429</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9280407099318643</v>
+        <v>0.9280407099318654</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.300054750608158</v>
+        <v>-0.3037938985264283</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2804425169109526</v>
+        <v>0.2236549564700119</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4010133575381593</v>
+        <v>-0.4331588306058214</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.01499519528269013</v>
+        <v>-0.0325695957366714</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2564700894312121</v>
+        <v>-0.2668108136327497</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3272440684003683</v>
+        <v>0.2712293507962215</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6873056108073128</v>
+        <v>0.7134661120067503</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.60160897225114</v>
+        <v>2.443415861253987</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6727984710111764</v>
+        <v>0.5764978432656723</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.722475641159386</v>
+        <v>1.680785651029768</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4094930831461321</v>
+        <v>0.4759821121213715</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.785961594730635</v>
+        <v>1.769556373003305</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +938,7 @@
         <v>-3.169742992103075</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-4.052389834740744</v>
+        <v>-4.052389834740749</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>3.136845799603727</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.087807270373787</v>
+        <v>-3.248480387311057</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.58220733841708</v>
+        <v>-11.73097407540905</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-18.8138763489461</v>
+        <v>-17.70551938555488</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-20.19502960410967</v>
+        <v>-19.86925535875089</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.187934922549114</v>
+        <v>-5.632700374567953</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-11.28795603623362</v>
+        <v>-10.5743822148036</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.73151418458877</v>
+        <v>17.77249317464517</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.10302862087297</v>
+        <v>21.18295595769817</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.08068452396652</v>
+        <v>11.89353897972823</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.71612373665038</v>
+        <v>14.31026709294855</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.6485343882931</v>
+        <v>10.67009345284339</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.18774721036653</v>
+        <v>13.50683072840283</v>
       </c>
     </row>
     <row r="19">
@@ -1016,7 +1016,7 @@
         <v>-0.1074739499617787</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.1374011531564527</v>
+        <v>-0.1374011531564529</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1253420606036064</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1397899959580591</v>
+        <v>-0.1210026010493205</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4927601741917759</v>
+        <v>-0.4706321201881341</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4965632722222805</v>
+        <v>-0.4761989435276344</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5973703502961834</v>
+        <v>-0.5951834716930767</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1771572509385296</v>
+        <v>-0.1941883499719305</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4191226826733669</v>
+        <v>-0.407423026291258</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.008160458535998</v>
+        <v>1.014573585184992</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.170433481257493</v>
+        <v>1.24141306424781</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5039909017658697</v>
+        <v>0.5492837447670688</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8172107674610094</v>
+        <v>0.6536949962799548</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5694835142451707</v>
+        <v>0.5146935451144283</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6197632007728807</v>
+        <v>0.6199734602995423</v>
       </c>
     </row>
     <row r="22">
@@ -1092,19 +1092,19 @@
         <v>11.76706595187043</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>15.18792037818177</v>
+        <v>15.18792037818176</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>24.36439931131398</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26.68120422416318</v>
+        <v>26.68120422416319</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>17.04884188188804</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>19.82183535477148</v>
+        <v>19.82183535477147</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.194194640651466</v>
+        <v>0.6596305447954636</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.599553124896964</v>
+        <v>-2.062205762040739</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12.17626472192874</v>
+        <v>11.26396577606793</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10.41639031283804</v>
+        <v>8.275940714687852</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>9.082119383281322</v>
+        <v>8.429682659733102</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.525076316273996</v>
+        <v>7.28132388299588</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.78084142820965</v>
+        <v>23.20022460111259</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>33.99680556439941</v>
+        <v>34.39197912806132</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>37.38057489218794</v>
+        <v>38.13530802203375</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>43.3835938553749</v>
+        <v>43.04069250376369</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>26.06416644720143</v>
+        <v>25.98189000788359</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>32.54113358008652</v>
+        <v>33.26155841672733</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>0.6029902352949127</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.778288123814288</v>
+        <v>0.7782881238142871</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>1.625382057544889</v>
@@ -1182,7 +1182,7 @@
         <v>0.9665761064477904</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.123789672788168</v>
+        <v>1.123789672788167</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01951984708594732</v>
+        <v>0.0241695419537096</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.131804037704762</v>
+        <v>-0.07610007726090812</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.516981289930465</v>
+        <v>0.4767821543068672</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.5060356693741339</v>
+        <v>0.3991109913400799</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4262013502571875</v>
+        <v>0.3753368183432805</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3822498596504375</v>
+        <v>0.3778177462924067</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.490214494366717</v>
+        <v>1.636950066563531</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.16302488093069</v>
+        <v>2.234068293020883</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.822291212453505</v>
+        <v>3.739521034591285</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.910864757149306</v>
+        <v>4.22701358451952</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.94285499381454</v>
+        <v>1.920869576497805</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.293247819736622</v>
+        <v>2.28922492638042</v>
       </c>
     </row>
     <row r="28">
@@ -1258,13 +1258,13 @@
         <v>-10.90270668667479</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11.45404183328237</v>
+        <v>11.45404183328239</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-23.7403076557394</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-8.158737458140363</v>
+        <v>-8.158737458140369</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-45.57660610578819</v>
+        <v>-45.56681509178745</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-42.75831783793193</v>
+        <v>-42.06189093437798</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-27.31370478032573</v>
+        <v>-27.22460316617045</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-8.754962695788276</v>
+        <v>-8.977985234196142</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-34.03863515047348</v>
+        <v>-34.99193414895274</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-21.06228841738157</v>
+        <v>-21.83551508100973</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-18.48052752593289</v>
+        <v>-18.42281688995826</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-3.481727093533504</v>
+        <v>-3.736804646778008</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.648236972243484</v>
+        <v>4.371353127990464</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>32.73508527250308</v>
+        <v>31.52748958102601</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-12.81426311839747</v>
+        <v>-13.39797979574973</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.833092176477717</v>
+        <v>7.501103144034382</v>
       </c>
     </row>
     <row r="31">
@@ -1330,19 +1330,19 @@
         <v>-0.6781825713414531</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.5054876596611593</v>
+        <v>-0.5054876596611594</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.3977420267144557</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.4178553036201461</v>
+        <v>0.4178553036201466</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.6005253981525859</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2063801839268776</v>
+        <v>-0.2063801839268778</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8131177600383821</v>
+        <v>-0.8263588741510955</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8041513395255075</v>
+        <v>-0.7753984156045425</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7282248427809764</v>
+        <v>-0.7311329678647025</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2816452603963462</v>
+        <v>-0.240041147042223</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7571884493474117</v>
+        <v>-0.7467174328728596</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4775910422823142</v>
+        <v>-0.4955831293847777</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.4555986758265503</v>
+        <v>-0.4354863349333319</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.05635132105465124</v>
+        <v>-0.05978877915483349</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2495230660162415</v>
+        <v>0.3506439552251026</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.778984937790292</v>
+        <v>1.720600032588943</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.3715282617136991</v>
+        <v>-0.379336255497069</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2424223170813755</v>
+        <v>0.2209574492223655</v>
       </c>
     </row>
     <row r="34">
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-10.69559159147981</v>
+        <v>-12.10123127373175</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.3154093302032097</v>
+        <v>-0.07711378628641902</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-36.17098224148931</v>
+        <v>-36.45534669662993</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-29.04303086565872</v>
+        <v>-31.81493542583645</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-16.62227193923539</v>
+        <v>-16.89262804639968</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-6.425617452738979</v>
+        <v>-7.205422763198639</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.73943537631006</v>
+        <v>10.42573011693827</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>33.95723822473934</v>
+        <v>35.93475124913209</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-6.760768060256065</v>
+        <v>-8.223023108401044</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.61014379546303</v>
+        <v>11.84116451658059</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.060580668044464</v>
+        <v>0.8945304076067868</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>20.78359676007684</v>
+        <v>18.76158414797924</v>
       </c>
     </row>
     <row r="37">
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4162495760758237</v>
+        <v>-0.4812267483047972</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.01010494160775903</v>
+        <v>-0.002971192203438411</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.8530139100031253</v>
+        <v>-0.8467652239146038</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.7444026245432956</v>
+        <v>-0.7626615247287262</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5682543376347179</v>
+        <v>-0.5626282878777484</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2289752396893774</v>
+        <v>-0.2756753976739536</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.7377227545626222</v>
+        <v>0.7171827691668556</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.121314844018743</v>
+        <v>2.417579508510878</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.2873770830828823</v>
+        <v>-0.3045896321444205</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5292368977703843</v>
+        <v>0.4973255141495047</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.06808712031766974</v>
+        <v>0.08181956872853123</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9932754763637538</v>
+        <v>0.9203665273711691</v>
       </c>
     </row>
     <row r="40">
@@ -1578,7 +1578,7 @@
         <v>-1.325607487519642</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4.356379105118719</v>
+        <v>4.356379105118735</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>2.378381940452551</v>
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.946456562102406</v>
+        <v>-3.07644556686715</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.970286931162931</v>
+        <v>3.280371353339082</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-9.169141658573327</v>
+        <v>-9.676846791501514</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-6.515635901823964</v>
+        <v>-7.053221477426265</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.475610877598098</v>
+        <v>-3.062270991856213</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.293417337360678</v>
+        <v>2.610576769967305</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>12.43259614906997</v>
+        <v>12.97982016793245</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>29.14367008818326</v>
+        <v>28.7319537087624</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8.568638274619067</v>
+        <v>7.775474053458127</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>15.57816495545492</v>
+        <v>15.08131001499364</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.81082468114356</v>
+        <v>8.679204867137027</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>19.32097877596497</v>
+        <v>18.96834342372212</v>
       </c>
     </row>
     <row r="43">
@@ -1650,13 +1650,13 @@
         <v>0.1970643731598163</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.6239845763746379</v>
+        <v>0.6239845763746377</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>-0.04390799928515654</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>0.1442960246032778</v>
+        <v>0.1442960246032784</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.08766157113138583</v>
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.0985305314784639</v>
+        <v>-0.1083370655159984</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1076079528623943</v>
+        <v>0.1066506646696081</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2640277926283693</v>
+        <v>-0.27622317305903</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1848868285616435</v>
+        <v>-0.20803667775439</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1173186539815542</v>
+        <v>-0.1009040521912799</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.05596287097404991</v>
+        <v>0.09021990220038519</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6233850932162845</v>
+        <v>0.6324522367809154</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.329647142819253</v>
+        <v>1.302826511878829</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3547298399754676</v>
+        <v>0.3095377261313554</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.6407683404695484</v>
+        <v>0.6115350540759886</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3237137448861881</v>
+        <v>0.3679463625598557</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7733882407566377</v>
+        <v>0.7812510756386757</v>
       </c>
     </row>
     <row r="46">
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-11.17815112313209</v>
+        <v>-10.36246974360162</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>6.632444918505833</v>
+        <v>6.745594324713373</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-7.378031782027572</v>
+        <v>-7.327614229004747</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2.058271165629015</v>
+        <v>2.99978979883305</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-7.529958967237012</v>
+        <v>-7.970938089346611</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>8.102694202533018</v>
+        <v>7.727944128</v>
       </c>
     </row>
     <row r="48">
@@ -1781,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-1.791211415833746</v>
+        <v>-1.768776605481718</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>25.37921366604167</v>
+        <v>26.22803100613997</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.585627092946041</v>
+        <v>5.167906305557802</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>20.4246108961054</v>
+        <v>21.75106058350579</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.7473039523036188</v>
+        <v>-0.7094482709097293</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>20.74044371396806</v>
+        <v>20.52034632805599</v>
       </c>
     </row>
     <row r="49">
@@ -1833,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.72106290480433</v>
+        <v>-0.7082518513793541</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.4531401007109696</v>
+        <v>0.4511789086192604</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4439742511661262</v>
+        <v>-0.437126554220833</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.109387945939427</v>
+        <v>0.1539417982274573</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.5022890310047</v>
+        <v>-0.536571098697657</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5523103216327133</v>
+        <v>0.4997734536329263</v>
       </c>
     </row>
     <row r="51">
@@ -1859,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.1242219949340788</v>
+        <v>-0.1573665099820891</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>2.426293156661468</v>
+        <v>2.534038102918385</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4461238527653635</v>
+        <v>0.4675833778666107</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.83213491057595</v>
+        <v>1.954151076010047</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.03989777953802765</v>
+        <v>-0.06764645252741815</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.814753933718972</v>
+        <v>1.83908295890232</v>
       </c>
     </row>
     <row r="52">
@@ -1898,7 +1898,7 @@
         <v>-0.5355518241398322</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>6.34236082233395</v>
+        <v>6.342360822333945</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>-0.234730624460841</v>
@@ -1915,22 +1915,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-2.945055445125106</v>
+        <v>-3.605212720101626</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>4.927574039242646</v>
+        <v>4.538988827018112</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-4.479847121013803</v>
+        <v>-4.269366497434801</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.044836774872466</v>
+        <v>1.575186021485133</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-2.930193968728966</v>
+        <v>-2.887286219571706</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>4.680111266446197</v>
+        <v>4.697515375666368</v>
       </c>
     </row>
     <row r="54">
@@ -1941,22 +1941,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>3.279926005586945</v>
+        <v>2.896808194712396</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>16.16992017636073</v>
+        <v>15.24992342869331</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>3.593286544013318</v>
+        <v>3.505741041823866</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>12.05480393084661</v>
+        <v>11.29638871194421</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>2.088399857363724</v>
+        <v>2.444101849593088</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>12.45996370888659</v>
+        <v>12.3910636264611</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>-0.002467215248603273</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>0.4535431406945102</v>
+        <v>0.4535431406945105</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>-0.02273436223717931</v>
       </c>
       <c r="F55" s="6" t="n">
-        <v>0.2692354350681601</v>
+        <v>0.2692354350681598</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>-0.01024276490038253</v>
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.1254914238768594</v>
+        <v>-0.145531085091077</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.2095897251355737</v>
+        <v>0.1911012339893397</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.1746374120873187</v>
+        <v>-0.1703973086467838</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.03661563565321553</v>
+        <v>0.06414560885402447</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.120950162937589</v>
+        <v>-0.1197591797432484</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.193468405320304</v>
+        <v>0.1968483044491781</v>
       </c>
     </row>
     <row r="57">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.1617051787931479</v>
+        <v>0.1361566783842119</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.76229944602424</v>
+        <v>0.7129588846524921</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.1663505261872872</v>
+        <v>0.1586443666413866</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.5476017488881878</v>
+        <v>0.5184970956417744</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.09373787511953513</v>
+        <v>0.1134364982817648</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.5648269671802937</v>
+        <v>0.571720847091405</v>
       </c>
     </row>
     <row r="58">
